--- a/CUMCM2022支撑材料/excel/extract/data_imput/data_3.xlsx
+++ b/CUMCM2022支撑材料/excel/extract/data_imput/data_3.xlsx
@@ -3871,10 +3871,10 @@
         <v>78.45</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7272146073698486</v>
+        <v>0.7347211527237242</v>
       </c>
       <c r="E69" t="n">
-        <v>9.011873483658151</v>
+        <v>9.112912327953371</v>
       </c>
       <c r="F69" t="n">
         <v>6.08</v>
@@ -3892,10 +3892,10 @@
         <v>2.11</v>
       </c>
       <c r="K69" t="n">
-        <v>0.341358061593138</v>
+        <v>0.403037823022429</v>
       </c>
       <c r="L69" t="n">
-        <v>0.764462387536804</v>
+        <v>0.7513103260291102</v>
       </c>
       <c r="M69" t="n">
         <v>1.06</v>
@@ -3904,7 +3904,7 @@
         <v>0.03</v>
       </c>
       <c r="O69" t="n">
-        <v>0.3013982058260593</v>
+        <v>0.2982172605782891</v>
       </c>
       <c r="P69" t="n">
         <v>0.51</v>
@@ -3921,43 +3921,43 @@
         <v>37.75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6636164084964302</v>
+        <v>0.6965535703434259</v>
       </c>
       <c r="E70" t="n">
-        <v>6.153892976861147</v>
+        <v>4.469165539508904</v>
       </c>
       <c r="F70" t="n">
         <v>7.63</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7621860570784758</v>
+        <v>0.870722236113499</v>
       </c>
       <c r="H70" t="n">
         <v>2.33</v>
       </c>
       <c r="I70" t="n">
-        <v>3.171229729421693</v>
+        <v>3.385236674099642</v>
       </c>
       <c r="J70" t="n">
-        <v>2.304732331296726</v>
+        <v>2.676027340396295</v>
       </c>
       <c r="K70" t="n">
         <v>34.3</v>
       </c>
       <c r="L70" t="n">
-        <v>6.393615266817469</v>
+        <v>5.636218009902088</v>
       </c>
       <c r="M70" t="n">
         <v>14.27</v>
       </c>
       <c r="N70" t="n">
-        <v>0.3195331008957942</v>
+        <v>0.3144125511334649</v>
       </c>
       <c r="O70" t="n">
-        <v>0.1478323557185339</v>
+        <v>0.1684910850557927</v>
       </c>
       <c r="P70" t="n">
-        <v>0.8817605147717714</v>
+        <v>0.8325385740552478</v>
       </c>
     </row>
     <row r="71">
@@ -3971,7 +3971,7 @@
         <v>31.95</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6183653409848883</v>
+        <v>0.559862884410948</v>
       </c>
       <c r="E71" t="n">
         <v>1.36</v>
@@ -4004,10 +4004,10 @@
         <v>0.52</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2753498527393357</v>
+        <v>0.2592225181304056</v>
       </c>
       <c r="P71" t="n">
-        <v>0.6561766927592597</v>
+        <v>0.6596712678007133</v>
       </c>
     </row>
     <row r="72">
@@ -4021,7 +4021,7 @@
         <v>35.47</v>
       </c>
       <c r="D72" t="n">
-        <v>1.672242497356027</v>
+        <v>1.847188075300376</v>
       </c>
       <c r="E72" t="n">
         <v>0.79</v>
@@ -4054,10 +4054,10 @@
         <v>0.28</v>
       </c>
       <c r="O72" t="n">
-        <v>0.2169235151856584</v>
+        <v>0.213998594033487</v>
       </c>
       <c r="P72" t="n">
-        <v>0.7277718062657995</v>
+        <v>0.867421336842662</v>
       </c>
     </row>
     <row r="73">
@@ -4107,7 +4107,7 @@
         <v>0.49</v>
       </c>
       <c r="P73" t="n">
-        <v>0.2503993133692495</v>
+        <v>0.2925165331568672</v>
       </c>
     </row>
     <row r="74">
@@ -4121,7 +4121,7 @@
         <v>93.17</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2805295582876626</v>
+        <v>0.2029156706316703</v>
       </c>
       <c r="E74" t="n">
         <v>1.35</v>
@@ -4142,22 +4142,22 @@
         <v>1.73</v>
       </c>
       <c r="K74" t="n">
-        <v>0.30367935838438</v>
+        <v>0.1244730261607984</v>
       </c>
       <c r="L74" t="n">
-        <v>0.7308285905042716</v>
+        <v>0.2235516130086015</v>
       </c>
       <c r="M74" t="n">
         <v>0.21</v>
       </c>
       <c r="N74" t="n">
-        <v>0.004075739207175103</v>
+        <v>0.002451747010341065</v>
       </c>
       <c r="O74" t="n">
-        <v>0.07038404879109035</v>
+        <v>0.06227670027683919</v>
       </c>
       <c r="P74" t="n">
-        <v>0.1126574491015685</v>
+        <v>0.07792692281653109</v>
       </c>
     </row>
     <row r="75">
@@ -4171,7 +4171,7 @@
         <v>90.83</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8757240826617434</v>
+        <v>0.937651798530962</v>
       </c>
       <c r="E75" t="n">
         <v>0.98</v>
@@ -4180,7 +4180,7 @@
         <v>1.12</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8462571026282852</v>
+        <v>0.8872999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>5.06</v>
@@ -4192,19 +4192,19 @@
         <v>1.17</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3425108093281179</v>
+        <v>0.5108685659637024</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2245031449605205</v>
+        <v>0.2861179853528035</v>
       </c>
       <c r="M75" t="n">
         <v>0.13</v>
       </c>
       <c r="N75" t="n">
-        <v>0.007261443340129898</v>
+        <v>0.009640438547672882</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1408967519331768</v>
+        <v>0.1587562145420416</v>
       </c>
       <c r="P75" t="n">
         <v>0.11</v>

--- a/CUMCM2022支撑材料/excel/extract/data_imput/data_3.xlsx
+++ b/CUMCM2022支撑材料/excel/extract/data_imput/data_3.xlsx
@@ -3871,10 +3871,10 @@
         <v>78.45</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7347211527237242</v>
+        <v>0.7237388205410836</v>
       </c>
       <c r="E69" t="n">
-        <v>9.112912327953371</v>
+        <v>9.647892588168544</v>
       </c>
       <c r="F69" t="n">
         <v>6.08</v>
@@ -3892,10 +3892,10 @@
         <v>2.11</v>
       </c>
       <c r="K69" t="n">
-        <v>0.403037823022429</v>
+        <v>0.3816800221166151</v>
       </c>
       <c r="L69" t="n">
-        <v>0.7513103260291102</v>
+        <v>0.7265509474055424</v>
       </c>
       <c r="M69" t="n">
         <v>1.06</v>
@@ -3904,7 +3904,7 @@
         <v>0.03</v>
       </c>
       <c r="O69" t="n">
-        <v>0.2982172605782891</v>
+        <v>0.303387388192047</v>
       </c>
       <c r="P69" t="n">
         <v>0.51</v>
@@ -3921,43 +3921,43 @@
         <v>37.75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6965535703434259</v>
+        <v>0.6144711827904369</v>
       </c>
       <c r="E70" t="n">
-        <v>4.469165539508904</v>
+        <v>4.718270083407988</v>
       </c>
       <c r="F70" t="n">
         <v>7.63</v>
       </c>
       <c r="G70" t="n">
-        <v>0.870722236113499</v>
+        <v>0.8480677298814381</v>
       </c>
       <c r="H70" t="n">
         <v>2.33</v>
       </c>
       <c r="I70" t="n">
-        <v>3.385236674099642</v>
+        <v>3.250520044597855</v>
       </c>
       <c r="J70" t="n">
-        <v>2.676027340396295</v>
+        <v>2.576326319077085</v>
       </c>
       <c r="K70" t="n">
         <v>34.3</v>
       </c>
       <c r="L70" t="n">
-        <v>5.636218009902088</v>
+        <v>5.659217729722203</v>
       </c>
       <c r="M70" t="n">
         <v>14.27</v>
       </c>
       <c r="N70" t="n">
-        <v>0.3144125511334649</v>
+        <v>0.3403039599410919</v>
       </c>
       <c r="O70" t="n">
-        <v>0.1684910850557927</v>
+        <v>0.1422126656146567</v>
       </c>
       <c r="P70" t="n">
-        <v>0.8325385740552478</v>
+        <v>0.8316645889774211</v>
       </c>
     </row>
     <row r="71">
@@ -3971,7 +3971,7 @@
         <v>31.95</v>
       </c>
       <c r="D71" t="n">
-        <v>0.559862884410948</v>
+        <v>0.5376243866721354</v>
       </c>
       <c r="E71" t="n">
         <v>1.36</v>
@@ -4004,10 +4004,10 @@
         <v>0.52</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2592225181304056</v>
+        <v>0.2717027697146209</v>
       </c>
       <c r="P71" t="n">
-        <v>0.6596712678007133</v>
+        <v>0.608986088023919</v>
       </c>
     </row>
     <row r="72">
@@ -4021,7 +4021,7 @@
         <v>35.47</v>
       </c>
       <c r="D72" t="n">
-        <v>1.847188075300376</v>
+        <v>2.015419689275732</v>
       </c>
       <c r="E72" t="n">
         <v>0.79</v>
@@ -4054,10 +4054,10 @@
         <v>0.28</v>
       </c>
       <c r="O72" t="n">
-        <v>0.213998594033487</v>
+        <v>0.2271200720209978</v>
       </c>
       <c r="P72" t="n">
-        <v>0.867421336842662</v>
+        <v>0.8639223931536583</v>
       </c>
     </row>
     <row r="73">
@@ -4107,7 +4107,7 @@
         <v>0.49</v>
       </c>
       <c r="P73" t="n">
-        <v>0.2925165331568672</v>
+        <v>0.2814124239126057</v>
       </c>
     </row>
     <row r="74">
@@ -4121,7 +4121,7 @@
         <v>93.17</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2029156706316703</v>
+        <v>0.1336241608913255</v>
       </c>
       <c r="E74" t="n">
         <v>1.35</v>
@@ -4142,22 +4142,22 @@
         <v>1.73</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1244730261607984</v>
+        <v>0.1499584999576394</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2235516130086015</v>
+        <v>0.3028176723143738</v>
       </c>
       <c r="M74" t="n">
         <v>0.21</v>
       </c>
       <c r="N74" t="n">
-        <v>0.002451747010341065</v>
+        <v>0.004153555272498193</v>
       </c>
       <c r="O74" t="n">
-        <v>0.06227670027683919</v>
+        <v>0.02526663480443462</v>
       </c>
       <c r="P74" t="n">
-        <v>0.07792692281653109</v>
+        <v>0.1070217213933063</v>
       </c>
     </row>
     <row r="75">
@@ -4171,7 +4171,7 @@
         <v>90.83</v>
       </c>
       <c r="D75" t="n">
-        <v>0.937651798530962</v>
+        <v>0.5915400619976725</v>
       </c>
       <c r="E75" t="n">
         <v>0.98</v>
@@ -4180,7 +4180,7 @@
         <v>1.12</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8872999999999999</v>
+        <v>0.8949679644331533</v>
       </c>
       <c r="H75" t="n">
         <v>5.06</v>
@@ -4192,19 +4192,19 @@
         <v>1.17</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5108685659637024</v>
+        <v>0.5607663955711966</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2861179853528035</v>
+        <v>0.3965587182685845</v>
       </c>
       <c r="M75" t="n">
         <v>0.13</v>
       </c>
       <c r="N75" t="n">
-        <v>0.009640438547672882</v>
+        <v>0.01770428485084128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1587562145420416</v>
+        <v>0.1353464036596969</v>
       </c>
       <c r="P75" t="n">
         <v>0.11</v>
